--- a/Opt_Sol.xlsx
+++ b/Opt_Sol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROG\Desktop\GP Git\GP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACB4F9F-7154-4610-9F83-65C9C651BDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C5CDD6-5CDA-4FD1-82DD-370DAA04F341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -866,483 +866,483 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C59"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>30.073049000000001</v>
+      </c>
       <c r="B2">
-        <v>30.073049000000001</v>
-      </c>
-      <c r="C2">
         <v>31.252331000000002</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>29.847726000000002</v>
+      </c>
       <c r="B3">
-        <v>29.847726000000002</v>
-      </c>
-      <c r="C3">
         <v>31.342697999999999</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>29.316168000000001</v>
+      </c>
       <c r="B4">
-        <v>29.316168000000001</v>
-      </c>
-      <c r="C4">
         <v>30.850000999999999</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>30.883296999999999</v>
+      </c>
       <c r="B5">
-        <v>30.883296999999999</v>
-      </c>
-      <c r="C5">
         <v>29.573687</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>30.937904</v>
+      </c>
       <c r="B6">
-        <v>30.937904</v>
-      </c>
-      <c r="C6">
         <v>30.801421000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>27.729050999999998</v>
+      </c>
       <c r="B7">
-        <v>27.729050999999998</v>
-      </c>
-      <c r="C7">
         <v>30.831541000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>28.695428</v>
+      </c>
       <c r="B8">
-        <v>28.695428</v>
-      </c>
-      <c r="C8">
         <v>30.774761000000002</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>28.091249000000001</v>
+      </c>
       <c r="B9">
-        <v>28.091249000000001</v>
-      </c>
-      <c r="C9">
         <v>30.764296999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>27.167860999999998</v>
+      </c>
       <c r="B10">
-        <v>27.167860999999998</v>
-      </c>
-      <c r="C10">
         <v>31.177925999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>26.058392999999999</v>
+      </c>
       <c r="B11">
-        <v>26.058392999999999</v>
-      </c>
-      <c r="C11">
         <v>32.229866000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>26.125783999999999</v>
+      </c>
       <c r="B12">
-        <v>26.125783999999999</v>
-      </c>
-      <c r="C12">
         <v>32.101447</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>25.611592000000002</v>
+      </c>
       <c r="B13">
-        <v>25.611592000000002</v>
-      </c>
-      <c r="C13">
         <v>32.504202999999997</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>24.484805999999999</v>
+      </c>
       <c r="B14">
-        <v>24.484805999999999</v>
-      </c>
-      <c r="C14">
         <v>32.948993000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>24.980384000000001</v>
+      </c>
       <c r="B15">
-        <v>24.980384000000001</v>
-      </c>
-      <c r="C15">
         <v>32.881483000000003</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>24.057592</v>
+      </c>
       <c r="B16">
-        <v>24.057592</v>
-      </c>
-      <c r="C16">
         <v>32.882291000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>25.503909</v>
+      </c>
       <c r="B17">
-        <v>25.503909</v>
-      </c>
-      <c r="C17">
         <v>29.000264999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>27.067596999999999</v>
+      </c>
       <c r="B18">
-        <v>27.067596999999999</v>
-      </c>
-      <c r="C18">
         <v>27.973583999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>25.442616000000001</v>
+      </c>
       <c r="B19">
-        <v>25.442616000000001</v>
-      </c>
-      <c r="C19">
         <v>30.550031000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>29.194512</v>
+      </c>
       <c r="B20">
-        <v>29.194512</v>
-      </c>
-      <c r="C20">
         <v>25.517236</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>31.349231</v>
+      </c>
       <c r="B21">
-        <v>31.349231</v>
-      </c>
-      <c r="C21">
         <v>27.241381000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>31.112614000000001</v>
+      </c>
       <c r="B22">
-        <v>31.112614000000001</v>
-      </c>
-      <c r="C22">
         <v>27.823256000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>31.605805</v>
+      </c>
       <c r="B23">
-        <v>31.605805</v>
-      </c>
-      <c r="C23">
         <v>25.934146999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>30.842925000000001</v>
+      </c>
       <c r="B24">
-        <v>30.842925000000001</v>
-      </c>
-      <c r="C24">
         <v>28.939793999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>31.560887000000001</v>
+      </c>
       <c r="B25">
-        <v>31.560887000000001</v>
-      </c>
-      <c r="C25">
         <v>25.159268999999998</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>30.851697999999999</v>
+      </c>
       <c r="B26">
-        <v>30.851697999999999</v>
-      </c>
-      <c r="C26">
         <v>29.384934000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>31.356383000000001</v>
+      </c>
       <c r="B27">
-        <v>31.356383000000001</v>
-      </c>
-      <c r="C27">
         <v>27.310229</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>29.034460441475101</v>
+      </c>
       <c r="B28">
-        <v>29.034460441475101</v>
-      </c>
-      <c r="C28">
         <v>34.659305074106697</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>28.484482687077499</v>
+      </c>
       <c r="B29">
-        <v>28.484482687077499</v>
-      </c>
-      <c r="C29">
         <v>34.494616181756399</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>27.881931210193301</v>
+      </c>
       <c r="B30">
-        <v>27.881931210193301</v>
-      </c>
-      <c r="C30">
         <v>34.2998855412553</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>31.135788607301301</v>
+      </c>
       <c r="B31">
-        <v>31.135788607301301</v>
-      </c>
-      <c r="C31">
         <v>33.809827281866802</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>31.256493277684701</v>
+      </c>
       <c r="B32">
-        <v>31.256493277684701</v>
-      </c>
-      <c r="C32">
         <v>34.227736966528603</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>31.2230347950286</v>
+      </c>
       <c r="B33">
-        <v>31.2230347950286</v>
-      </c>
-      <c r="C33">
         <v>34.122782037691302</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>31.010791709675001</v>
+      </c>
       <c r="B34">
-        <v>31.010791709675001</v>
-      </c>
-      <c r="C34">
         <v>32.994818554876602</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>30.596431617313002</v>
+      </c>
       <c r="B35">
-        <v>30.596431617313002</v>
-      </c>
-      <c r="C35">
         <v>32.272144808828401</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>30.620266198529801</v>
+      </c>
       <c r="B36">
-        <v>30.620266198529801</v>
-      </c>
-      <c r="C36">
         <v>32.2879589953371</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>31.264582000000001</v>
+      </c>
       <c r="B37">
-        <v>31.264582000000001</v>
-      </c>
-      <c r="C37">
         <v>32.304057999999998</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>29.9683508409693</v>
+      </c>
       <c r="B38">
-        <v>29.9683508409693</v>
-      </c>
-      <c r="C38">
         <v>32.547451693458399</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>27.260335000000001</v>
+      </c>
       <c r="B39">
-        <v>27.260335000000001</v>
-      </c>
-      <c r="C39">
         <v>33.818638</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>26.141226</v>
+      </c>
       <c r="B40">
-        <v>26.141226</v>
-      </c>
-      <c r="C40">
         <v>34.254314000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>26.755647</v>
+      </c>
       <c r="B41">
-        <v>26.755647</v>
-      </c>
-      <c r="C41">
         <v>33.941028000000003</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>27.276472999999999</v>
+      </c>
       <c r="B42">
-        <v>27.276472999999999</v>
-      </c>
-      <c r="C42">
         <v>33.775286000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>30.887015000000002</v>
+      </c>
       <c r="B43">
-        <v>30.887015000000002</v>
-      </c>
-      <c r="C43">
         <v>30.669695000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>31.041112999999999</v>
+      </c>
       <c r="B44">
-        <v>31.041112999999999</v>
-      </c>
-      <c r="C44">
         <v>31.378679000000002</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>26.613747</v>
+      </c>
       <c r="B45">
-        <v>26.613747</v>
-      </c>
-      <c r="C45">
         <v>30.808105999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>25.945903999999999</v>
+      </c>
       <c r="B46">
-        <v>25.945903999999999</v>
-      </c>
-      <c r="C46">
         <v>30.716335999999998</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>25.207891</v>
+      </c>
       <c r="B47">
-        <v>25.207891</v>
-      </c>
-      <c r="C47">
         <v>29.782091999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>25.549084000000001</v>
+      </c>
       <c r="B48">
-        <v>25.549084000000001</v>
-      </c>
-      <c r="C48">
         <v>29.298931</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>25.877804999999999</v>
+      </c>
       <c r="B49">
-        <v>25.877804999999999</v>
-      </c>
-      <c r="C49">
         <v>28.321641</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>26.248317</v>
+      </c>
       <c r="B50">
-        <v>26.248317</v>
-      </c>
-      <c r="C50">
         <v>27.756119999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>26.496741</v>
+      </c>
       <c r="B51">
-        <v>26.496741</v>
-      </c>
-      <c r="C51">
         <v>27.670801000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>30.702977000000001</v>
+      </c>
       <c r="B52">
-        <v>30.702977000000001</v>
-      </c>
-      <c r="C52">
         <v>26.948915</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>30.261099000000002</v>
+      </c>
       <c r="B53">
-        <v>30.261099000000002</v>
-      </c>
-      <c r="C53">
         <v>26.254131999999998</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>29.627381</v>
+      </c>
       <c r="B54">
-        <v>29.627381</v>
-      </c>
-      <c r="C54">
         <v>26.499649000000002</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>29.303208300000001</v>
+      </c>
       <c r="B55">
-        <v>29.303208300000001</v>
-      </c>
-      <c r="C55">
         <v>25.7861318</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>29.0580223366957</v>
+      </c>
       <c r="B56">
-        <v>29.0580223366957</v>
-      </c>
-      <c r="C56">
         <v>33.102627099511302</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>28.689807959023099</v>
+      </c>
       <c r="B57">
-        <v>28.689807959023099</v>
-      </c>
-      <c r="C57">
         <v>33.353975518920798</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>27.877408752043198</v>
+      </c>
       <c r="B58">
-        <v>27.877408752043198</v>
-      </c>
-      <c r="C58">
         <v>33.435885616423199</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>31.407283404911801</v>
+      </c>
       <c r="B59">
-        <v>31.407283404911801</v>
-      </c>
-      <c r="C59">
         <v>26.578109221370799</v>
       </c>
     </row>
